--- a/SP500 Stock Forecasting and Optimization/LabIACD_2425_GroupEvaluation_TP1_Group8.xlsx
+++ b/SP500 Stock Forecasting and Optimization/LabIACD_2425_GroupEvaluation_TP1_Group8.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198FEB9A-8C3F-43DB-975A-3B32DCCD24B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -19,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>XYZ</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Group</t>
   </si>
@@ -30,22 +28,7 @@
     <t>TP</t>
   </si>
   <si>
-    <t>1 or 2</t>
-  </si>
-  <si>
     <t>Student</t>
-  </si>
-  <si>
-    <t>Student 1</t>
-  </si>
-  <si>
-    <t>Student 2</t>
-  </si>
-  <si>
-    <t>Student 3</t>
-  </si>
-  <si>
-    <t>Student 4</t>
   </si>
   <si>
     <r>
@@ -69,11 +52,32 @@
   <si>
     <t>Justification in case that % is not equal to all students</t>
   </si>
+  <si>
+    <t>Francisco Macieira</t>
+  </si>
+  <si>
+    <t>Gonçalo Esteves</t>
+  </si>
+  <si>
+    <t>Nuno Gomes</t>
+  </si>
+  <si>
+    <t>Also helped develop the feature extraction pipeline and also contributed towards the Ethical Analysis of the problem.</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>Developed the portfolio optimization alongside its proper evaluation based on multiple Financial Metrics.</t>
+  </si>
+  <si>
+    <t>Performed exploratory data analysis, data extraction, data cleaning alongside the model training and evaluation pipeline.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -134,7 +138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -146,6 +150,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,88 +438,93 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="D3:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.7265625" customWidth="1"/>
-    <col min="6" max="6" width="32.54296875" customWidth="1"/>
-    <col min="7" max="7" width="41.26953125" customWidth="1"/>
+    <col min="3" max="3" width="2.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" customWidth="1"/>
+    <col min="6" max="6" width="128.140625" customWidth="1"/>
+    <col min="7" max="7" width="41.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:7" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
-        <v>0</v>
+      <c r="E4" s="6">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="4:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="D4" s="4" t="s">
+    <row r="6" spans="4:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E6" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="F6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="4:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="3" t="s">
+    <row r="7" spans="4:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="4:7" ht="54" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="4:7" ht="54" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="4:7" ht="54" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="4:7" ht="54" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="4:7" ht="54" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
